--- a/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2AE81-49D4-46D2-AE5C-27DE8BCF5BB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E279DC5-4B4E-45E1-B45C-FC047A2739BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="3936" windowWidth="21600" windowHeight="11340" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
+    <workbookView xWindow="13620" yWindow="1920" windowWidth="16800" windowHeight="11325" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
   </bookViews>
   <sheets>
     <sheet name="evolutionquestions" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>National Sectoral Frameworks</t>
   </si>
   <si>
-    <t>Water Resource Management</t>
-  </si>
-  <si>
     <t>National laws and policies</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>National Water Resources Strategic Plan coordinated with national DRM, drought and flood plans.</t>
-  </si>
-  <si>
-    <t>Disaster Risk Management</t>
   </si>
   <si>
     <t>Law</t>
@@ -171,9 +165,6 @@
     <t>Comprehensive Plan with focus on hazard mitigation and synchronized with WRM and drought plans.</t>
   </si>
   <si>
-    <t>Drought Risk Management</t>
-  </si>
-  <si>
     <t>No DRM or water resources laws.</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
   </si>
   <si>
     <t>Comprehensive and coordinated WRM and DRM Plans include flood risk management.</t>
-  </si>
-  <si>
-    <t>Flood Risk Management</t>
   </si>
   <si>
     <t>Whole-of-Society Approach</t>
@@ -792,6 +780,18 @@
   </si>
   <si>
     <t>Disaster Risk Financing National Sector Framework</t>
+  </si>
+  <si>
+    <t>National Water Resource Management Sector Framework</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Management Sector Framework</t>
+  </si>
+  <si>
+    <t>Overarching National Drought Risk Management Framework</t>
+  </si>
+  <si>
+    <t>Overarching Flood Risk Management Framework</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1244,8 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,23 +1286,23 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -1310,23 +1310,23 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" t="s">
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -1334,23 +1334,23 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -1358,23 +1358,23 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1382,23 +1382,23 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>191</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1406,23 +1406,23 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>191</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1430,23 +1430,23 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1454,23 +1454,23 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
+      <c r="B9" t="s">
+        <v>192</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" s="14"/>
     </row>
@@ -1478,8 +1478,8 @@
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
+      <c r="B10" t="s">
+        <v>192</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2</v>
@@ -1502,23 +1502,23 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
+      <c r="B11" t="s">
+        <v>193</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -1526,23 +1526,23 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
+      <c r="B12" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1550,35 +1550,35 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
+      <c r="B13" t="s">
+        <v>193</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1764,542 +1764,542 @@
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -2308,13 +2308,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2328,6 +2328,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
     <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
@@ -2556,22 +2571,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F90CD483-4F3F-4DF6-9268-711E23AAE775}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2588,21 +2605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E279DC5-4B4E-45E1-B45C-FC047A2739BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9470C1-95D5-4EE6-B83C-6C157E116675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="1920" windowWidth="16800" windowHeight="11325" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
+    <workbookView xWindow="10545" yWindow="2325" windowWidth="16800" windowHeight="11325" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
   </bookViews>
   <sheets>
     <sheet name="evolutionquestions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="189">
   <si>
     <t>Program areas</t>
   </si>
@@ -240,21 +240,6 @@
   </si>
   <si>
     <t>INCONSISTENT</t>
-  </si>
-  <si>
-    <t>National Water Data Program</t>
-  </si>
-  <si>
-    <t>Drought Monitoring and Impact Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood Forecasting and Warning </t>
-  </si>
-  <si>
-    <t>Agrometeorological Advisory Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Climate Assessment </t>
   </si>
   <si>
     <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
@@ -1241,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E078053-88B6-4D6D-AD93-1F1A25FBEE4B}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1311,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1335,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1359,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -1383,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -1407,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>32</v>
@@ -1431,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1455,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -1479,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2</v>
@@ -1503,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -1527,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -1551,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -1682,644 +1667,564 @@
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="A29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>138</v>
+      <c r="D40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="A46" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A47" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="B47" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,12 +2242,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
     <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
@@ -2571,6 +2470,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
   <ds:schemaRefs>
@@ -2580,15 +2485,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F90CD483-4F3F-4DF6-9268-711E23AAE775}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2605,4 +2501,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9470C1-95D5-4EE6-B83C-6C157E116675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182594DC-73BE-49EB-B564-AA87957F38FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2325" windowWidth="16800" windowHeight="11325" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
   </bookViews>
   <sheets>
     <sheet name="evolutionquestions" sheetId="1" r:id="rId1"/>
@@ -425,9 +425,6 @@
     <t xml:space="preserve">WaMOs functioning effectively and are key partners for natural resources and agriculture agencies. Comprehensive watershed plans formulated with broad engagement by other agencies and stakeholders. Watershed plans synergize with river basin plans. </t>
   </si>
   <si>
-    <t>Watershed Planning</t>
-  </si>
-  <si>
     <t>Water Resources Infrastructure</t>
   </si>
   <si>
@@ -777,6 +774,9 @@
   </si>
   <si>
     <t>Overarching Flood Risk Management Framework</t>
+  </si>
+  <si>
+    <t>Watershed Management</t>
   </si>
 </sst>
 </file>
@@ -1230,21 +1230,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="228.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="228.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -1363,12 +1363,12 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>32</v>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2</v>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -1507,12 +1507,12 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>48</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>48</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>48</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>56</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>59</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>59</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>85</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>85</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>85</v>
       </c>
@@ -1860,12 +1860,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>106</v>
+      <c r="B30" t="s">
+        <v>188</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -1881,159 +1881,159 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
@@ -2049,159 +2049,159 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="6" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="6" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>50</v>
@@ -2211,12 +2211,12 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>50</v>
@@ -2233,15 +2233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
     <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
@@ -2470,6 +2461,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2477,14 +2477,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F90CD483-4F3F-4DF6-9268-711E23AAE775}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2503,6 +2495,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
   <ds:schemaRefs>

--- a/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/evolutionquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182594DC-73BE-49EB-B564-AA87957F38FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6782A-582A-4B89-A8E0-135354ECF327}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
+    <workbookView xWindow="11820" yWindow="2472" windowWidth="17280" windowHeight="8436" xr2:uid="{5BB4FAED-16CA-424D-B55C-921D539CF78A}"/>
   </bookViews>
   <sheets>
     <sheet name="evolutionquestions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="283">
   <si>
     <t>Program areas</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Local Government</t>
   </si>
   <si>
-    <t>NOT AVAILABLE</t>
-  </si>
-  <si>
     <t>Public Participation &amp; Stakeholder Engagement</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>National Framework for NMS/NHS Services</t>
   </si>
   <si>
-    <t>INCONSISTENT</t>
-  </si>
-  <si>
     <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
     <t>Local Flood Mitigation Planning</t>
   </si>
   <si>
-    <t>Drought Monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
@@ -668,9 +659,6 @@
     <t>There are well-formulated social protection programs in place that can respond quickly to meet the specific needs of a drought event. The Drought Committee closely follows the implementation of the programs, informed by the drought impact assessment process. The most vulnerable populations are identified, and their basic needs are met.</t>
   </si>
   <si>
-    <t>Flood Monitoring</t>
-  </si>
-  <si>
     <t>The NHA/NMA issues weather forecasts but there is no structured flood forecasting or issuance of warnings.</t>
   </si>
   <si>
@@ -758,12 +746,6 @@
     <t>Disaster Risk Financing</t>
   </si>
   <si>
-    <t>Disaster Risk Financing Instruments</t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing National Sector Framework</t>
-  </si>
-  <si>
     <t>National Water Resource Management Sector Framework</t>
   </si>
   <si>
@@ -777,13 +759,617 @@
   </si>
   <si>
     <t>Watershed Management</t>
+  </si>
+  <si>
+    <t>No drought law or policy adopted.</t>
+  </si>
+  <si>
+    <t>No drought law but sector laws incorporate drought mandates.</t>
+  </si>
+  <si>
+    <t>National drought law adopted.</t>
+  </si>
+  <si>
+    <t>Well-established drought law or policy with evolutionary amendments.</t>
+  </si>
+  <si>
+    <t>Drought emergency response plans only.</t>
+  </si>
+  <si>
+    <t>No National Strategic Drought Plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic drought preparedness and response plan but primary focus on monitoring and response. Limited collaboration and low implementation. </t>
+  </si>
+  <si>
+    <t>Ad hoc drought coordination committees convened during droughts.</t>
+  </si>
+  <si>
+    <t>Multi-disciplinary Drought Committee established.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought Committee functioning with effective working groups and interagency collaboration.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive plan covering all three drought pillars with high level of implementation and inter-agency collaboration. </t>
+  </si>
+  <si>
+    <t>No drought committee in place.</t>
+  </si>
+  <si>
+    <t>National laws and National Strategic Plans</t>
+  </si>
+  <si>
+    <t>Sector Agency capacity</t>
+  </si>
+  <si>
+    <t>Meaningful and inclusive engagement</t>
+  </si>
+  <si>
+    <t>Norms of service</t>
+  </si>
+  <si>
+    <t>No legal requirement for public consultation on national sectors frameworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency has no specific expertise to carry out public participation and stakeholder engagement.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency has limited or no engagement with stakeholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs have weak or not well articulated norms of service. </t>
+  </si>
+  <si>
+    <t>Legal requirement for public consultation – no special mention to social inclusion. 
+Sector agencies conduct public consultations in an ad hoc basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency creates a Specialized Unit to carry out public participation and stakeholder engagement, but it is not properly supported with technical or financial resources.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency carries out public consultations for program design but input from consultations is not internalized (tokenism) or only privileged voices are represented (elite capture). Limited participation from CSOs, academia and vulnerable communities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs have norms of service, but they are not public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public consultations legally required with special mention to vulnerable groups. National Strategic Plans further develop Public Participation requirements within a sector. Public consultation conducted regularly. </t>
+  </si>
+  <si>
+    <t>Sector agency Specialized Unit functional with social and communication experts to meet its specific public participation and stakeholder engagement needs. The Specialized unit has a robust understanding of the communities the program serves. Limited performance review for continuous improvement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency develops processes and guidelines to systematically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">engage with stakeholders, including vulnerable communities and CSOs; and incorporate their feedback into program services design and implementation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public, transparent and inclusive consultations legally required and further operationalized in National Strategic Plans. Programs have clear guidelines on ensuring wide demographic representation including CSOs and vulnerable groups. Financial and technical resources allocated to sector agencies and local governments for public participation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialized Unit well stablished and operational delivers targeted and inclusive participatory processes for each program. Periodic performance review with stakeholders’ feedback informs better service delivery. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency operationalizes a two-way transparent and inclusive communication avenue where programs and communities inform, learn and benefit from participatory processes. Stakeholders participate in program services design, implementation and overall program performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencies have transparent and realistic norms of service and tangible statement of obligations, including an institutionalized system for citizens to complain in cases of non-compliance or to participate in performance review. Periodic capacity building for sector agency staff. </t>
+  </si>
+  <si>
+    <t>National Sector Frameworks</t>
+  </si>
+  <si>
+    <t>Sector Agency inclusion guidelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication and capacity building </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National sectoral frameworks do not mention social inclusion as a key element to fulfil their mandate  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency has no specific expertise to operationalize social inclusion within their mandate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusion not considered or considered in an ad hoc basis in Sector Agency’s EPIC Response programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National sector frameworks mention the importance of social inclusion to fulfil their mandate </t>
+  </si>
+  <si>
+    <t>Sector agency creates a Specialized Unit to operationalize social inclusion within their mandate.</t>
+  </si>
+  <si>
+    <t>Sector agency generates Inclusion Guidelines to operationalize Social Inclusion within its programs, identifying marginalized individuals/groups and developing targeted procedures to address their exclusion.  Limited technical and financial resources to implement the Guidelines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency develops a communication and capacity-building scheme aimed at informing and educating marginalized individuals/groups on the content and services provided by the EPIC Response programs.  </t>
+  </si>
+  <si>
+    <t>Social Inclusion is included in the law and further operationalized in National Strategic Plans and Programs.</t>
+  </si>
+  <si>
+    <t>Sector agency Specialized Unit has the necessary technical and financial resources. The Specialized Unit staff is representative of the society it serves. Sector agency staff is trained on social inclusive practices.</t>
+  </si>
+  <si>
+    <t>Agency implements Inclusions Guidelines coupled with adequate technical and financial resources. Inclusion Guidelines operationalize the inclusion of vulnerable groups in the planning, design, implementation and monitoring of the Sector Agency’s EPIC Response programs</t>
+  </si>
+  <si>
+    <t>Sector agency provides targeted technical and financial resources to implement the communication and capacity-building scheme (e.g. material is translated into minority languages or into accessible signage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several rounds of National Strategic Planning and program performance monitoring further operationalize social inclusion within each program.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sector agency staff is representative of the society it serves through an inclusive employment program. All Sector agency staff is periodically trained on Social Inclusive practices within their mandate.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency incorporates improvements in their Inclusion Guidelines responding to inclusive feedback. Agency has enhanced engagement mechanisms and analysis tools that enable excluded groups to meaningfully participate in the design, implementation and monitoring of Sector Agency’s EPIC Response programs. </t>
+  </si>
+  <si>
+    <t>Agency implements enhanced communication and capacity-building scheme incorporating feedback from the marginalized individuals/groups they serve</t>
+  </si>
+  <si>
+    <t>Sector agency does not communicate or communicate in an ad hoc basis with marginalized individuals/groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency has limited engagement or engages in an ad hoc manner in education and risk communication activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National legal frameworks highlight the importance of education and risk communication. 
+Sector agency develops education and risk communication programs, but they are not properly supported with technical and financial resources. 
+Sector agency has limited or emerging partnerships with universities and other professional organizations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National legal frameworks highlight the importance of education and risk communication and these concepts are further operationalized in Sectoral Strategic Plans. 
+Sector agency implements education and risk communication programs coupled with technical and financial resources. 
+Sector agency implements education and risk communication programs either directly or in partnership with universities and other professional organizations. </t>
+  </si>
+  <si>
+    <t>Several rounds of National Strategic Planning further operationalize Education and Risk Communication within each program.   
+Sector agency implements education and risk communication programs enhanced with user’s feedback. 
+Strong collaboration with universities and professional organizations accompanied with grants and/or technical assistance. 
+Risks communication tailored to users delivers simple, tangible, relevant and personal information. Clear synergies established between risk and emergency communication programs, especially around drought. 
+Sector agency periodically evaluates and improves its education and risk communication programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency relies on external expertise, such as academia or the private sector, as supplier of scientific information. 
+Sector agency engages with external expertise in an ad-hoc manner generating targeted knowledge that is not necessarily aligned to policy priorities. 
+Some public and international funding resources are available for research entities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National legal frameworks highlight the importance of scientific collaboration and the science-informed policy and policy-informed science interface. 
+Sector agency creates a Science unit but is not properly supported with technical and financial resources. Including equipment and infrastructure.
+Sector agencies engage with external expertise in a siloed sectoral approach. Limited collaboration with other agencies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National legal frameworks establish clear roles, mechanisms and resources to strengthen scientific-based decision making. 
+Scientific collaboration is further operationalized in National Strategic Plans with clear guidance on scientific development and prioritization. 
+Sector agency develops a scientific collaboration program including external expertise and collaboration between agencies and local governments.
+Sector agency Science Unit has the necessary technical and financial resources. 
+Sector agency engages with external expertise, other agencies and local governments in an incipient cross-sectorial fashion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National legal frameworks, Strategic Plans and Programs are updated based on performance reviews to better facilitate the science-informed policy and policy-informed science interface.  
+Sector agencies, scientific organizations and local governments collaborate under formal agreements that specify roles, budget allocations and obligations per party; and in a manner refined by experience, fostering innovation on research and technology. 
+Sector Agency establishes scientific advisory committee consisting of high-profile multidisciplinary experts to help identify priority policy-relevant research and to seek advice on key issues confronting the agency
+Under these committees, subcommittees can be easily formed to address more specific research projects by mobilizing representatives from relevant entities. </t>
+  </si>
+  <si>
+    <t>National Open Data law or policy</t>
+  </si>
+  <si>
+    <t>Sector Agency open data program</t>
+  </si>
+  <si>
+    <t>Information Unit</t>
+  </si>
+  <si>
+    <t>Access to Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Open Data Law or Policy exists. Agencies disclose limited information and respond to access to information requests in an ad hoc basis. </t>
+  </si>
+  <si>
+    <t>Sector agencies do not have procedures in place to implement Open Data Law or Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agencies dedicate no specific staff to facilitate open data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Open Data Law or Policy in place providing general principles for improving public access to information and designating a Lead agency to facilitate implementation.  </t>
+  </si>
+  <si>
+    <t>Sector agencies develop their own specific open data programs with limited financial and technical resources to implement it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency establishes a unit tasked with facilitating open data. Unit has limited financial and technical resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead agency works with Sector agency to develop their own specific open data programs. Lead agency provides technical and financial support to Sector Agencies on matters related to the implementation of the Open Data Law or Policy. Sector agency participates in ad hoc cross agency information sharing facilitated by the Lead agency. </t>
+  </si>
+  <si>
+    <t>Sector agencies implement their specific open data programs coupled with financial and technical resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Unit has technical and financial resources and is staffed mainly with IT specialists. Open Data unit interacts with other agencies and access to information requests. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open data portal exists but is not user-tested. A first-generation Access to Information process in place coupled with limited technical and financial resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Law or Policy updated to incorporate users’ feedback. Lead Agency establishes and Sector Agencies actively engage in cross-agency information platforms with standardized GIS, databases and interagency data exchanges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector agency open data program updated to incorporate users’ feedback. Sector Agency periodically reports on Open Data performance. </t>
+  </si>
+  <si>
+    <t>Open Data Unit staffed with multidisciplinary specialists that tailor data to users’ needs. Open Data Unit participates in cross agency data platforms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data shared in interactive and user-tested formats for third parties to use. Third parties audit portal on user-friendliness. A second-generation Access to information Process incorporating user’s feedback in place. Requests and Agency’s performance are easily trackable, audited and periodically improved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data is not publicly available. No Access to Information process exists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some data is available to the public on ad hoc basis. Information requests are managed in an ad hoc basis. </t>
+  </si>
+  <si>
+    <t>Disaster Risk Financing National Sector Framework and Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No DRF in place. 
+Government makes ad-hoc budget reallocations and uses external financing to meet response and recovery costs in time of disaster. </t>
+  </si>
+  <si>
+    <t>The budgetary law explicitly authorizes the finance agency to develop and implement a disaster risk financing strategy
+The DRM law mandates the DRM agency to work with the finance agency to develop a disaster risk financing strategy
+DRF strategy developed setting out policy priorities and risk financing instruments but is not coupled with adequate financing resources. 
+Initial engagement between DRM agency and Ministry of Finance on risk financing but not formalized in budget laws.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DRM/Budgetary Law specifies roles and responsibilities of the DRM agency and the procedures for triggering and accessing contingent credit lines and/or a national disaster fund. 
+DRF strategy developed coupled with financing resources. 
+A national disaster fund could be established, potentially complemented by contingent credit or insurance products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DRM/Budgetary laws are updated to incorporate improvements based on feedback and experience.  
+A full-fledged and well-balanced DRF strategy is implemented and continuously evaluated and improved. 
+Risk-based budget planning, a national disaster fund, contingent credit lines and insurance solutions are evaluated, integrated in policies and laws and implemented where deemed effective. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legal framework:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no legal framework, entity operates within the overall regulations of government’s administrative structure. the government and its NMS recognize the need for a legal framework and regulations, which include defining the roles and responsibilities of the NMS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Financing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NMS does not have own budget. No annual budget reviews. No explicit provision for operations and maintenance (O&amp;M). Budget is allocated primarily for staff costs. Government reviews allocation and method of financing NMS (thinking about it; for example, change from Department to Agency status (more autonomy)).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Head of the service has little autonomy in decision-making concerning policy, strategy and human resources; decisions are made at ministry level. Delegated authority to the head of NMS for policy, strategy, and human resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>No coordination and collaboration mechanisms exist.
+Planning is conducted by each agency separately. 
+No legal or regulatory framework for joined-up government thinking.
+Differentiated roles and responsibilities of agencies unclear.
+No co-production of services.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legal framework: T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">he NMS has started the process of creating a meteorological law which may include hydrology. The latter may also be included within a Water Law. It may also have established regulations particularly for the provision of aeronautical meteorological services.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Financing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Budget is allocated to NMS by government. NMS manages its own financial allocation but remains a government department with little or no flexibility. NMS has plans for or has initiated establishing an asset register.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In addition to the inclusions in the two previous categories, NMS has staff hiring authority with a financial and staff allocation ceiling.</t>
+    </r>
+  </si>
+  <si>
+    <t>No legal or regulatory framework, but agencies in the process of developing formal coordination and collaboration mechanisms.
+Planning is conducted by each agency separately, but cooperatively.
+Differentiated roles and responsibilities of agencies in progress.
+NMS/NHS engages in co-production of flood forecast but with weak linkages to DRM agency.
+NMS/NHS provides drought monitoring and forecasts, but with weak linkages to Drought Committee.
+Water data are maintained separately and exclusively by each agency.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legal framework:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A meteorological law has been adopted, which mandates the responsibilities of NMS and may define the roles and responsibilities of other actors and provide a legal framework for the production, exchange, and sharing of data related to the provision of meteorological services. Often the law may be restrictive and promotes a monopolistic position of the public sector in the provision of services. The law should define the meteorological authority and regulator for provision of meteorological services, which may or may not be the NMS. The law should cover the provision of public, private, and club goods (WMO 2015). Regulations related to the provision of services should follow from the Law.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Financing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Budget allocation is sufficient to cover operating expenses (OPEX). NMS has a high degree of autonomy from its parent ministry in budget decisions. Cost recovery for services provided by the NMS to other government departments and agencies is defined. The NMHS uses an asset register to depreciate capital equipment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Performance targets negotiated and agreed with government and key performance indicators are used to manage the service. More financial autonomy is given to NMS. Cost-recovered services and revenue generated are applied directly to the NMS. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal and regulatory framework in development.
+Agencies have formal agreements to coordinate and collaborate.
+Clear, differentiated roles and responsibilities of agencies.
+NMS/NHS engages in co-production of flood forecasts with clear linkages to DRM warnings.
+NMS/NHS provides drought monitoring and forecasts, but with clear linkages to the Drought Committee.
+Rudimentary impact-based flood warning and impact-based drought monitoring.
+Water data are public and shared among agencies, but no national water data program exists. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legal framework:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A meteorological law, which governs the provision and use of meteorological and hydrological services by all actors including the private sector, is in place. An advanced law promotes and regulates the work of the private sector alongside the provision of services by public entities. An advanced law supports an open data policy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Financing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Authority to establish subsidiary bodies, which may operate commercially and competitively. Budget allocation from government is sufficient to support public service responsibilities of the NMHS defined by law.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Year-on-year improvement in performance based on targets and key performance indicators (KPIs).</t>
+    </r>
+  </si>
+  <si>
+    <t>Well-established legal and regulatory framework has evolved over time. 
+Agencies have formal and mutually beneficial agreements to coordinate and collaborate. 
+NMS/NHS engages in co-production of flood forecasts and impact-based warning issued by the DRM agency.
+NMS/NHS provides drought monitoring and forecasts, allowing the Drought Committee to monitor vulnerability and impacts.
+National water data program allows free and easily accessible data for all users.
+NMS/NHS incorporated into National Strategic WRM, DRM, and Drought Plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National government and Local governments engage in the EPIC Response programs in a fractured manner and with little or ad hoc coordination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal frameworks establish clear roles for national and local governments in the implementation of the EPIC Response programs but there is not true collaboration yet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal frameworks establish clear roles for national and local governments and collaboration between then is incipient. National agencies provide some technical assistance to local governments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National and local government collaborate in all EPIC Response Programs in a manner that has been refined by experience. National agencies collaborate, assist and local governments with technical and financial resources. Legal frameworks devolve an appropriate level of authority to local governments.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-Production of Services </t>
+  </si>
+  <si>
+    <t>Drought Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t>Flood Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood Forecasting and Warning </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +1397,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -826,7 +1420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -862,11 +1456,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,14 +1509,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,25 +1837,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E078053-88B6-4D6D-AD93-1F1A25FBEE4B}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="228.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="228.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,12 +1878,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1291,12 +1902,12 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1315,12 +1926,12 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1339,12 +1950,12 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -1363,12 +1974,12 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -1387,12 +1998,12 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>32</v>
@@ -1411,84 +2022,84 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>6</v>
+        <v>180</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -1507,12 +2118,12 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -1520,7 +2131,7 @@
       <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1531,12 +2142,12 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -1555,676 +2166,953 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="C15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="C19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="C25" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B31" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="B39" s="6" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="B56" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2233,10 +3121,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
-    <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <xsd:import namespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
+    <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <xsd:import namespace="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2245,15 +3142,15 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
@@ -2264,7 +3161,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be3c9163-79a1-42b6-a061-0833e6c3add8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18fba281-3140-4e33-b78f-87df0c1efb23" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2277,34 +3174,34 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2327,10 +3224,10 @@
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f7620e32-1325-4c29-861c-5840d24c4310" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2349,14 +3246,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2461,15 +3358,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2477,14 +3365,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F90CD483-4F3F-4DF6-9268-711E23AAE775}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06449BD0-9092-45EF-B338-BE86373085A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2495,19 +3391,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1622E4D1-EB36-4F19-983B-15F91DDCA2CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4BF107-D120-446E-AB03-5D44E6F3B9B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>